--- a/figures_tables/polyfunctional_tcell/model/cytokine_pvals.xlsx
+++ b/figures_tables/polyfunctional_tcell/model/cytokine_pvals.xlsx
@@ -392,7 +392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B2">
@@ -418,7 +418,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose2</t>
+          <t>3 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B3">
@@ -444,7 +444,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose2</t>
+          <t>4 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B4">
@@ -470,7 +470,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B5">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B6">
@@ -522,7 +522,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B7">
@@ -548,7 +548,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B8">
@@ -574,7 +574,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B9">
@@ -600,7 +600,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B10">
@@ -626,7 +626,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B11">
@@ -652,7 +652,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B12">
@@ -678,7 +678,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B13">
@@ -704,7 +704,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B14">
@@ -730,7 +730,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B15">
@@ -756,7 +756,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B16">
@@ -782,7 +782,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B17">
@@ -808,7 +808,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B18">
@@ -834,7 +834,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B19">
@@ -860,7 +860,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B20">
@@ -886,7 +886,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B21">
@@ -912,7 +912,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B22">
@@ -938,7 +938,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B23">
@@ -964,7 +964,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B24">
@@ -990,7 +990,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B25">
@@ -1016,7 +1016,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B26">
@@ -1042,7 +1042,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B27">
@@ -1068,7 +1068,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B28">
@@ -1094,7 +1094,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B29">
@@ -1120,7 +1120,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B30">
@@ -1146,7 +1146,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B31">
@@ -1172,7 +1172,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B32">
@@ -1198,7 +1198,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B33">
@@ -1224,7 +1224,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B34">
@@ -1250,7 +1250,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B35">
@@ -1276,7 +1276,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B36">
@@ -1302,7 +1302,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B37">
@@ -1328,7 +1328,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B38">
@@ -1354,7 +1354,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B39">
@@ -1380,7 +1380,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B40">
@@ -1406,7 +1406,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B41">
@@ -1432,7 +1432,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B42">
@@ -1458,7 +1458,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B43">
@@ -1484,7 +1484,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B44">
@@ -1510,7 +1510,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B45">
@@ -1536,7 +1536,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose2</t>
+          <t>3 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B46">
@@ -1562,7 +1562,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B47">
@@ -1588,7 +1588,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B48">
@@ -1614,7 +1614,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B49">
@@ -1640,7 +1640,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose6</t>
+          <t>8 weeks / 6 weeks</t>
         </is>
       </c>
       <c r="B50">
@@ -1666,7 +1666,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B51">
@@ -1692,7 +1692,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B52">
@@ -1718,7 +1718,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B53">
@@ -1744,7 +1744,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose2</t>
+          <t>3 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B54">
@@ -1770,7 +1770,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B55">
@@ -1796,7 +1796,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B56">
@@ -1822,7 +1822,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B57">
@@ -1848,7 +1848,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose6</t>
+          <t>8 weeks / 6 weeks</t>
         </is>
       </c>
       <c r="B58">
@@ -1874,7 +1874,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B59">
@@ -1900,7 +1900,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B60">
@@ -1926,7 +1926,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B61">
@@ -1952,7 +1952,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose2</t>
+          <t>3 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B62">
@@ -1978,7 +1978,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B63">
@@ -2004,7 +2004,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B64">
@@ -2030,7 +2030,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B65">
@@ -2056,7 +2056,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose6</t>
+          <t>8 weeks / 6 weeks</t>
         </is>
       </c>
       <c r="B66">
@@ -2082,7 +2082,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B67">
@@ -2108,7 +2108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B68">
@@ -2134,7 +2134,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B69">
@@ -2160,7 +2160,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose2</t>
+          <t>3 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B70">
@@ -2186,7 +2186,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B71">
@@ -2212,7 +2212,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B72">
@@ -2238,7 +2238,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B73">
@@ -2264,7 +2264,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose6</t>
+          <t>8 weeks / 6 weeks</t>
         </is>
       </c>
       <c r="B74">
@@ -2290,7 +2290,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B75">
@@ -2316,7 +2316,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B76">
@@ -2342,7 +2342,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B77">
@@ -2368,7 +2368,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B78">
@@ -2394,7 +2394,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B79">
@@ -2420,7 +2420,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B80">
@@ -2446,7 +2446,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B81">
@@ -2472,7 +2472,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B82">
@@ -2498,7 +2498,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B83">
@@ -2524,7 +2524,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B84">
@@ -2550,7 +2550,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B85">
@@ -2576,7 +2576,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B86">
@@ -2602,7 +2602,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B87">
@@ -2628,7 +2628,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B88">
@@ -2654,7 +2654,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B89">
@@ -2680,7 +2680,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B90">
@@ -2706,7 +2706,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B91">
@@ -2732,7 +2732,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B92">
@@ -2758,7 +2758,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B93">
@@ -2784,7 +2784,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B94">
@@ -2810,7 +2810,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B95">
@@ -2836,7 +2836,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B96">
@@ -2862,7 +2862,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B97">
@@ -2888,7 +2888,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B98">
@@ -2914,7 +2914,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B99">
@@ -2940,7 +2940,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B100">
@@ -2966,7 +2966,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B101">
@@ -2992,7 +2992,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B102">
@@ -3018,7 +3018,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B103">
@@ -3044,7 +3044,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B104">
@@ -3070,7 +3070,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B105">
@@ -3096,7 +3096,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B106">
@@ -3122,7 +3122,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B107">
@@ -3148,7 +3148,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B108">
@@ -3174,7 +3174,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B109">
@@ -3200,7 +3200,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B110">
@@ -3226,7 +3226,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B111">
@@ -3252,7 +3252,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B112">
@@ -3278,7 +3278,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B113">
@@ -3304,7 +3304,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B114">
@@ -3330,7 +3330,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B115">
@@ -3356,7 +3356,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B116">
@@ -3382,7 +3382,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B117">
@@ -3408,7 +3408,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B118">
@@ -3434,7 +3434,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B119">
@@ -3460,7 +3460,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B120">
@@ -3486,7 +3486,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B121">
@@ -3512,7 +3512,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B122">
@@ -3538,7 +3538,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B123">
@@ -3564,7 +3564,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B124">
@@ -3590,7 +3590,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B125">
@@ -3616,7 +3616,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B126">
@@ -3642,7 +3642,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B127">
@@ -3668,7 +3668,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B128">
@@ -3694,7 +3694,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B129">
@@ -3720,7 +3720,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B130">
@@ -3746,7 +3746,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B131">
@@ -3772,7 +3772,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B132">
@@ -3798,7 +3798,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B133">
@@ -3824,7 +3824,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B134">
@@ -3850,7 +3850,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B135">
@@ -3876,7 +3876,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B136">
@@ -3902,7 +3902,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B137">
@@ -3928,7 +3928,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B138">
@@ -3954,7 +3954,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B139">
@@ -3980,7 +3980,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B140">
@@ -4006,7 +4006,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B141">
@@ -4032,7 +4032,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B142">
@@ -4058,7 +4058,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B143">
@@ -4084,7 +4084,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B144">
@@ -4110,7 +4110,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B145">
@@ -4136,7 +4136,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B146">
@@ -4162,7 +4162,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B147">
@@ -4188,7 +4188,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B148">
@@ -4214,7 +4214,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B149">
@@ -4240,7 +4240,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B150">
@@ -4266,7 +4266,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose0</t>
+          <t>2 weeks / Prime only</t>
         </is>
       </c>
       <c r="B151">
@@ -4292,7 +4292,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B152">
@@ -4318,7 +4318,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose0</t>
+          <t>3 weeks / Prime only</t>
         </is>
       </c>
       <c r="B153">
@@ -4344,7 +4344,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>weeks_post_dose3 / weeks_post_dose1</t>
+          <t>3 weeks / 1 week</t>
         </is>
       </c>
       <c r="B154">
@@ -4370,7 +4370,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B155">
@@ -4396,7 +4396,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B156">
@@ -4422,7 +4422,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B157">
@@ -4448,7 +4448,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B158">
@@ -4474,7 +4474,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B159">
@@ -4500,7 +4500,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B160">
@@ -4526,7 +4526,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B161">
@@ -4552,7 +4552,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B162">
@@ -4578,7 +4578,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B163">
@@ -4604,7 +4604,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B164">
@@ -4630,7 +4630,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B165">
@@ -4656,7 +4656,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B166">
@@ -4682,7 +4682,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B167">
@@ -4708,7 +4708,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B168">
@@ -4734,7 +4734,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B169">
@@ -4760,7 +4760,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B170">
@@ -4786,7 +4786,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B171">
@@ -4812,7 +4812,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B172">
@@ -4838,7 +4838,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B173">
@@ -4864,7 +4864,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B174">
@@ -4890,7 +4890,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B175">
@@ -4916,7 +4916,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B176">
@@ -4942,7 +4942,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B177">
@@ -4968,7 +4968,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B178">
@@ -4994,7 +4994,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B179">
@@ -5020,7 +5020,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B180">
@@ -5046,7 +5046,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B181">
@@ -5072,7 +5072,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B182">
@@ -5098,7 +5098,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B183">
@@ -5124,7 +5124,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B184">
@@ -5150,7 +5150,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B185">
@@ -5176,7 +5176,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B186">
@@ -5202,7 +5202,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B187">
@@ -5228,7 +5228,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B188">
@@ -5254,7 +5254,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B189">
@@ -5280,7 +5280,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B190">
@@ -5306,7 +5306,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B191">
@@ -5332,7 +5332,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B192">
@@ -5358,7 +5358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B193">
@@ -5384,7 +5384,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B194">
@@ -5410,7 +5410,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B195">
@@ -5436,7 +5436,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B196">
@@ -5462,7 +5462,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B197">
@@ -5488,7 +5488,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B198">
@@ -5514,7 +5514,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B199">
@@ -5540,7 +5540,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B200">
@@ -5566,7 +5566,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B201">
@@ -5592,7 +5592,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B202">
@@ -5618,7 +5618,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B203">
@@ -5644,7 +5644,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B204">
@@ -5670,7 +5670,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>weeks_post_dose2 / weeks_post_dose1</t>
+          <t>2 weeks / 1 week</t>
         </is>
       </c>
       <c r="B205">
@@ -5696,7 +5696,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose0</t>
+          <t>4 weeks / Prime only</t>
         </is>
       </c>
       <c r="B206">
@@ -5722,7 +5722,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose1</t>
+          <t>4 weeks / 1 week</t>
         </is>
       </c>
       <c r="B207">
@@ -5748,7 +5748,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>weeks_post_dose4 / weeks_post_dose3</t>
+          <t>4 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B208">
@@ -5774,7 +5774,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose0</t>
+          <t>6 weeks / Prime only</t>
         </is>
       </c>
       <c r="B209">
@@ -5800,7 +5800,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose1</t>
+          <t>6 weeks / 1 week</t>
         </is>
       </c>
       <c r="B210">
@@ -5826,7 +5826,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose2</t>
+          <t>6 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B211">
@@ -5852,7 +5852,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose3</t>
+          <t>6 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B212">
@@ -5878,7 +5878,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>weeks_post_dose6 / weeks_post_dose4</t>
+          <t>6 weeks / 4 weeks</t>
         </is>
       </c>
       <c r="B213">
@@ -5904,7 +5904,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose0</t>
+          <t>8 weeks / Prime only</t>
         </is>
       </c>
       <c r="B214">
@@ -5930,7 +5930,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose1</t>
+          <t>8 weeks / 1 week</t>
         </is>
       </c>
       <c r="B215">
@@ -5956,7 +5956,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose2</t>
+          <t>8 weeks / 2 weeks</t>
         </is>
       </c>
       <c r="B216">
@@ -5982,7 +5982,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>weeks_post_dose8 / weeks_post_dose3</t>
+          <t>8 weeks / 3 weeks</t>
         </is>
       </c>
       <c r="B217">

--- a/figures_tables/polyfunctional_tcell/model/cytokine_pvals.xlsx
+++ b/figures_tables/polyfunctional_tcell/model/cytokine_pvals.xlsx
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.5242283890129525</v>
+        <v>0.524</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3903465455390032</v>
+        <v>0.39</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -448,7 +448,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.3380235769773679</v>
+        <v>0.338</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.3804684338366704</v>
+        <v>0.38</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>0.3436871635628692</v>
+        <v>0.344</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>1.493443091245694</v>
+        <v>1.493</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1.537322657745586</v>
+        <v>1.537</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.767564339449065</v>
+        <v>1.768</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -604,7 +604,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>1.819497993587168</v>
+        <v>1.819</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>1.323887902381425</v>
+        <v>1.324</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>0.7276116308165637</v>
+        <v>0.728</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>1.40711284581709</v>
+        <v>1.407</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>1.448455902042542</v>
+        <v>1.448</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>0.6957381078118282</v>
+        <v>0.696</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>1.493443091245694</v>
+        <v>1.493</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1.537322657745586</v>
+        <v>1.537</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>1.767564339449065</v>
+        <v>1.768</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>1.819497993587168</v>
+        <v>1.819</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>1.323887902381425</v>
+        <v>1.324</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>0.7276116308165637</v>
+        <v>0.728</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>1.40711284581709</v>
+        <v>1.407</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>1.448455902042542</v>
+        <v>1.448</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>0.6957381078118282</v>
+        <v>0.696</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>1.493443091245694</v>
+        <v>1.493</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.537322657745586</v>
+        <v>1.537</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>1.767564339449065</v>
+        <v>1.768</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>1.819497993587168</v>
+        <v>1.819</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>1.323887902381425</v>
+        <v>1.324</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.7276116308165637</v>
+        <v>0.728</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>1.40711284581709</v>
+        <v>1.407</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>1.448455902042542</v>
+        <v>1.448</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>0.6957381078118282</v>
+        <v>0.696</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>1.493443091245694</v>
+        <v>1.493</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>1.537322657745586</v>
+        <v>1.537</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>1.767564339449065</v>
+        <v>1.768</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>1.819497993587168</v>
+        <v>1.819</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>1.323887902381425</v>
+        <v>1.324</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>0.7276116308165637</v>
+        <v>0.728</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>1.40711284581709</v>
+        <v>1.407</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>1.448455902042542</v>
+        <v>1.448</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>0.6957381078118282</v>
+        <v>0.696</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>1.521242576108057</v>
+        <v>1.521</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>2.192875627643785</v>
+        <v>2.193</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>1.847858118955601</v>
+        <v>1.848</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>1.441502927990638</v>
+        <v>1.442</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.6393967246338814</v>
+        <v>0.639</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>1.658447091414658</v>
+        <v>1.658</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>0.5255802182337662</v>
+        <v>0.526</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1644,7 +1644,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.6949465297403103</v>
+        <v>0.695</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>1.521242576108057</v>
+        <v>1.521</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>2.192875627643785</v>
+        <v>2.193</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>1.847858118955601</v>
+        <v>1.848</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1748,7 +1748,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>1.441502927990638</v>
+        <v>1.442</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.6393967246338814</v>
+        <v>0.639</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1800,7 +1800,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>1.658447091414658</v>
+        <v>1.658</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.5255802182337662</v>
+        <v>0.526</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.6949465297403103</v>
+        <v>0.695</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>1.521242576108057</v>
+        <v>1.521</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>2.192875627643785</v>
+        <v>2.193</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1930,7 +1930,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>1.847858118955601</v>
+        <v>1.848</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>1.441502927990638</v>
+        <v>1.442</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>0.6393967246338814</v>
+        <v>0.639</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>1.658447091414658</v>
+        <v>1.658</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2034,7 +2034,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>0.5255802182337662</v>
+        <v>0.526</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>0.6949465297403103</v>
+        <v>0.695</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>1.521242576108057</v>
+        <v>1.521</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>2.192875627643785</v>
+        <v>2.193</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>1.847858118955601</v>
+        <v>1.848</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>1.441502927990638</v>
+        <v>1.442</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2190,7 +2190,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>0.6393967246338814</v>
+        <v>0.639</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>1.658447091414658</v>
+        <v>1.658</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>0.5255802182337662</v>
+        <v>0.526</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>0.6949465297403103</v>
+        <v>0.695</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>2.084667996786826</v>
+        <v>2.085</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>2.320800197763549</v>
+        <v>2.321</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>2.018413316900836</v>
+        <v>2.018</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>2.279165218157367</v>
+        <v>2.279</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>4.103349760744146</v>
+        <v>4.103</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>4.568139843325772</v>
+        <v>4.568</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>1.968346886443686</v>
+        <v>1.968</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>2.263233107448925</v>
+        <v>2.263</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>2.004303947310572</v>
+        <v>2.004</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>2.925038815582901</v>
+        <v>2.925</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>3.256360567790221</v>
+        <v>3.256</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>2.031229927393777</v>
+        <v>2.031</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>2.575585822298485</v>
+        <v>2.576</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>1.984695826233268</v>
+        <v>1.985</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>2.516580896471999</v>
+        <v>2.517</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>2.234681362800238</v>
+        <v>2.235</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>2.829503513588574</v>
+        <v>2.83</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>3.886242812647812</v>
+        <v>3.886</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>4.686073627411897</v>
+        <v>4.686</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>2.096976197778758</v>
+        <v>2.097</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>2.404878757501526</v>
+        <v>2.405</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2840,7 +2840,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>3.392257212334168</v>
+        <v>3.392</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2866,7 +2866,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>4.090420446293803</v>
+        <v>4.09</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>2.099191353503082</v>
+        <v>2.099</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>2.423082281082328</v>
+        <v>2.423</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>2.726761379727941</v>
+        <v>2.727</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>3.943841424024838</v>
+        <v>3.944</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>5.149685408747493</v>
+        <v>5.15</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>3.939071092257611</v>
+        <v>3.939</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>5.143456530540848</v>
+        <v>5.143</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>2.122691652156112</v>
+        <v>2.123</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>2.067120670006745</v>
+        <v>2.067</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>1.946206319204236</v>
+        <v>1.946</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>1.895920571699659</v>
+        <v>1.896</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>1.785020415542139</v>
+        <v>1.785</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>2.470409414989468</v>
+        <v>2.47</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>2.325905054424547</v>
+        <v>2.326</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>4.561710461389258</v>
+        <v>4.562</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>4.294877340811883</v>
+        <v>4.295</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>2.20679446903038</v>
+        <v>2.207</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -3334,7 +3334,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>2.406066229504418</v>
+        <v>2.406</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>1.846540267257161</v>
+        <v>1.847</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>3.353350084179685</v>
+        <v>3.353</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>3.15719890910542</v>
+        <v>3.157</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>1.622232379964902</v>
+        <v>1.622</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>1.768718655325031</v>
+        <v>1.769</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>2.067120670006745</v>
+        <v>2.067</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>1.946206319204236</v>
+        <v>1.946</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>1.895920571699659</v>
+        <v>1.896</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>1.785020415542139</v>
+        <v>1.785</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>2.470409414989468</v>
+        <v>2.47</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -3620,7 +3620,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>2.325905054424547</v>
+        <v>2.326</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>4.561710461389258</v>
+        <v>4.562</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>4.294877340811883</v>
+        <v>4.295</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>2.20679446903038</v>
+        <v>2.207</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -3724,7 +3724,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>2.406066229504418</v>
+        <v>2.406</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>1.846540267257161</v>
+        <v>1.847</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>3.353350084179685</v>
+        <v>3.353</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>3.15719890910542</v>
+        <v>3.157</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>1.622232379964902</v>
+        <v>1.622</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>1.768718655325031</v>
+        <v>1.769</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -3880,7 +3880,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>2.067120670006745</v>
+        <v>2.067</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>1.946206319204236</v>
+        <v>1.946</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>1.895920571699659</v>
+        <v>1.896</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>1.785020415542139</v>
+        <v>1.785</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>2.470409414989468</v>
+        <v>2.47</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>2.325905054424547</v>
+        <v>2.326</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -4036,7 +4036,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>4.561710461389258</v>
+        <v>4.562</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>4.294877340811883</v>
+        <v>4.295</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -4088,7 +4088,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>2.20679446903038</v>
+        <v>2.207</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>2.406066229504418</v>
+        <v>2.406</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>1.846540267257161</v>
+        <v>1.847</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>3.353350084179685</v>
+        <v>3.353</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>3.15719890910542</v>
+        <v>3.157</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>1.622232379964902</v>
+        <v>1.622</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>1.768718655325031</v>
+        <v>1.769</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>2.067120670006745</v>
+        <v>2.067</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>1.946206319204236</v>
+        <v>1.946</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>1.895920571699659</v>
+        <v>1.896</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -4348,7 +4348,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>1.785020415542139</v>
+        <v>1.785</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>2.470409414989468</v>
+        <v>2.47</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>2.325905054424547</v>
+        <v>2.326</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>4.561710461389258</v>
+        <v>4.562</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>4.294877340811883</v>
+        <v>4.295</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -4478,7 +4478,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>2.20679446903038</v>
+        <v>2.207</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>2.406066229504418</v>
+        <v>2.406</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>1.846540267257161</v>
+        <v>1.847</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>3.353350084179685</v>
+        <v>3.353</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>3.15719890910542</v>
+        <v>3.157</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -4608,7 +4608,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>1.622232379964902</v>
+        <v>1.622</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>1.768718655325031</v>
+        <v>1.769</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>1.867502156024367</v>
+        <v>1.868</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>1.96044330150406</v>
+        <v>1.96</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>2.570297316249108</v>
+        <v>2.57</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>1.88420441193731</v>
+        <v>1.884</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -4764,7 +4764,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>3.164871814876145</v>
+        <v>3.165</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>4.149399029192864</v>
+        <v>4.149</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -4816,7 +4816,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>2.221897852062626</v>
+        <v>2.222</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>3.041794390192583</v>
+        <v>3.042</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -4868,7 +4868,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>1.614365389934023</v>
+        <v>1.614</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -4894,7 +4894,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>2.600582042629117</v>
+        <v>2.601</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>3.409570192479958</v>
+        <v>3.41</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>1.825738289769059</v>
+        <v>1.826</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>2.499449055510762</v>
+        <v>2.499</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>1.867502156024367</v>
+        <v>1.868</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -5024,7 +5024,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>1.96044330150406</v>
+        <v>1.96</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -5050,7 +5050,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>2.570297316249108</v>
+        <v>2.57</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>1.88420441193731</v>
+        <v>1.884</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>3.164871814876145</v>
+        <v>3.165</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>4.149399029192864</v>
+        <v>4.149</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>2.221897852062626</v>
+        <v>2.222</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>3.041794390192583</v>
+        <v>3.042</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -5206,7 +5206,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>1.614365389934023</v>
+        <v>1.614</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>2.600582042629117</v>
+        <v>2.601</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>3.409570192479958</v>
+        <v>3.41</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>1.825738289769059</v>
+        <v>1.826</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>2.499449055510762</v>
+        <v>2.499</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -5336,7 +5336,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>1.867502156024367</v>
+        <v>1.868</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>1.96044330150406</v>
+        <v>1.96</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -5388,7 +5388,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>2.570297316249108</v>
+        <v>2.57</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -5414,7 +5414,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>1.88420441193731</v>
+        <v>1.884</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>3.164871814876145</v>
+        <v>3.165</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>4.149399029192864</v>
+        <v>4.149</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>2.221897852062626</v>
+        <v>2.222</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>3.041794390192583</v>
+        <v>3.042</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>1.614365389934023</v>
+        <v>1.614</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>2.600582042629117</v>
+        <v>2.601</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>3.409570192479958</v>
+        <v>3.41</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>1.825738289769059</v>
+        <v>1.826</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>2.499449055510762</v>
+        <v>2.499</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -5674,7 +5674,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>1.867502156024367</v>
+        <v>1.868</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>1.96044330150406</v>
+        <v>1.96</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>2.570297316249108</v>
+        <v>2.57</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>1.88420441193731</v>
+        <v>1.884</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>3.164871814876145</v>
+        <v>3.165</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>4.149399029192864</v>
+        <v>4.149</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>2.221897852062626</v>
+        <v>2.222</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>3.041794390192583</v>
+        <v>3.042</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>1.614365389934023</v>
+        <v>1.614</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
@@ -5908,7 +5908,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>2.600582042629117</v>
+        <v>2.601</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>3.409570192479958</v>
+        <v>3.41</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
@@ -5960,7 +5960,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>1.825738289769059</v>
+        <v>1.826</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -5986,7 +5986,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>2.499449055510762</v>
+        <v>2.499</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
